--- a/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. The Subcommittee on Energy and Mineral Resources will come to order. We are here today to hear H.R. 3881, introduced by Representative Glenn Thompson of Pennsylvania, to amend the Mineral Leasing Act to repeal provisions relating only to the Allegheny National Forest, the ``Cooperative Management of Mineral Rights Act of 2015.''    Under Committee Rule 4(f), any oral opening statements at hearings are limited to the Chairman and Ranking Minority Member, and the Vice Chair and a designee of the Ranking Member. This will allow us to hear from our witnesses sooner and help Members keep to their schedules.    Therefore, I ask unanimous consent that all other Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    [No response.]</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lowenthal. Thank you very much, Mr. Chairman. I have some very significant concerns about the legislation before us today. I understand the sponsor's interest in trying to protect private oil and gas rights, and I certainly respect those rights. But I also respect the rights of surface landowners, who in this case are the American people. And we certainly should not be stripping away those rights just to make it a little easier for oil and gas companies.    Unfortunately, that appears to be all that this bill is about. This issue started back in 1979, when the forest rangers at the Allegheny National Forest discovered that an oil company was building roads and drilling in the Allegheny without having provided any notice whatsoever. Worse, they were drilling on land that was being managed for hunting, fishing, and wildlife habitat. The Forest Service had no opportunity to make sure that the forest resources were not damaged unnecessarily in the process of drilling.    The Forest Service also was unable to properly market the timber that the oil company cut down to build the roads and the well pad. So, the Forest Service sued the company and won. The ruling required the oil company to provide information to the Forest Service at least 60 days before doing any additional drilling.    Those requirements became standard operating procedure for the Forest Service in the 1980s, and were put into law by the Energy Policy Act of 1992. It is that language that this bill would eliminate.    This bill is unnecessary, since the courts have been very clear that the Forest Service deserves this advance notice. And I am concerned that future courts could interpret this legislation to indicate that it is the intent of Congress that companies do not have to provide any advance notice. Then those companies would be allowed to build roads and drill wells without telling anyone in charge of protecting the forest.    This could go far beyond the Allegheny, too, since it could set a precedent that would apply to all private minerals underneath national forests, nationwide. I do not see why it is necessary to take that kind of risk, particularly when recent court cases have severely limited the authority of the Forest Service in these situations.    According to the courts, the Forest Service cannot say no to companies wanting to drill on their private mineral rights. I disagree, but that is not the point we are discussing here today. The point is, the oil companies won, so there is no need for legislation that supposedly protects their interests. The courts have done it for them, and there is no indication that the 60-day notice has hindered companies very much, if at all.    But the courts have also been very clear that the Forest Service deserves this advance notice and it deserves the right to make sure that our national forests are not being unduly harmed by private companies seeking to drill for oil and gas. The Forest Service is managing this land on behalf of the American people, and the American people have the right to use this land for recreation, hunting, fishing, bird watching, and more, and have the right to expect they will be able to continue to do so with their children and their grandchildren.    This bill appears to simply blindfold the Forest Service to what is happening on their lands, and I think that is the wrong direction to go.    Thank you, Mr. Chair, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thank you to the Ranking Member and my colleagues. Thank you for your attendance this afternoon.    The underlying issue that this Cooperative Management of Mineral Rights Act aims to address is central to the management of the Allegheny National Forest and the economy of the region. But also, this legislation has a profound implication to how we manage issues of access, nationally.    At its fundamental core, this legislation is about private property rights, not about oil--private property rights and fair access. As we discuss this legislation and the events leading up to it, it is critical to keep the history of the region in context.    Since coming to Congress in 2009, I have had the distinct privilege to represent both the Allegheny National Forest and Pennsylvania's oil region. Because of this area's remarkable history, the region was designated as a National Park Service Heritage Area, and is frequently referred to as--and I quote--``The Valley That Changed the World.''    In 1859, in Titusville, Pennsylvania, Col. Edwin Drake came to the area in search of petroleum, intending to corner the market for medicinal products. Drake discovered much more than a medicinal tonic. Over the following decades the oil industry developed, fueling manufacturing, exports, and generations of innovation.    Following the first American oil boom, in 1923 the Allegheny National Forest was established in four counties: Warren, Forest, Elk, and McKean. Because of the long history of oil and timbering within the region, the Federal Government chose to only purchase the surface rights within the Allegheny. This was done as an agreement between the landowners, the municipalities, and the Federal Government, my predecessors, to ensure industry could continue to produce privately sourced commodities, while the area could simultaneously function as a national forest.    And I have to say, if you have not been to the Allegheny National Forest, please come. You will see this works really well. There is not a problem, and what the Forest Service chose to do in cooperation with some environmental groups with a solution in search of a problem that the courts have deemed and reinforced as being inappropriate.    To this day, 93 percent of the mineral rights in the Allegheny are owned by the private sector. Unfortunately, the national forests are commonly mistaken for national parks. One might believe that the Forest Service would have this understanding, but I feel that we should be reminded of the mission presented by our first chief of the Forest Service, and former Pennsylvania Governor, Gifford Pinchot. The mission of the Forest Service is one of multiple uses and active management. This includes timbering, conservation, research, energy production, watershed management, and recreation.    In short, active management of these lands and responsible utilization of their resources is the core function of the Forest Service.    Since 1923, the Forest Service and local interests largely operated harmoniously in order to meet the various needs of the local communities and the economy, supplementing national demand for resources. However, the Forest Service attempted to fundamentally change this long-standing relationship as they settled out of court to apply the National Environmental Policy Act, or NEPA, to the oil and gas leasing process.    In January 2009, the Forest Service stopped issuing notices to proceed, effectively shutting down access to private property within the Allegheny. Subsequently, a Federal judge overturned the settlement, citing the Forest Service's lack of authority to further regulate privately held mineral rights within the Allegheny National Forest. With due respect to the Ranking Member, you cannot strip away something that the government never had.    Further, the courts found that the Federal Government is required to provide ``reasonable access'' to private property.    Mr. Chairman, the real-life consequences of the Forest Service's settlement produced a de facto moratorium on energy production in the Allegheny, affecting industry and the regional economy. Throughout this period, the Forest Service referred to an obscure provision contained in the Energy Policy Act of 1992, in order to justify the need for a new Federal regulatory process in the Allegheny National Forest.    For 16 years, the Forest Service did not promulgate a new rule, because they simply were not needed. Oil and gas extraction had been effectively regulated by the Commonwealth of Pennsylvania. In light of the court's decision, which again, ruled squarely in favor of the mineral rights owners, the private property owners, the existing 1992 statute remains on the book.    To address this matter, I have introduced H.R. 3881, the Cooperative Management of Mineral Rights Act. This legislation repeals the 1992 language which applies solely to the Allegheny National Forest. This would effectively codify the findings of the court, which remain consistent with more than 90 years of precedent. Property rights are, of course, among the founding principles of this great Nation. In fact, I think it is one of those that defines us as a Nation. And this is not a new concept. Case law shows us that access to private property cannot be unreasonably hindered, not even by the Federal Government.    Today the committee will hear from a panel of individuals who were party to the case in question. We will hear firsthand how the Forest Service's actions caused harm to my constituents; how it utilized, foolishly, probably more than $4 million that could have been used for healthy forest management, for multiple uses on the forest; and how it caused harm to the rural economy and communities of Northwestern Pennsylvania.    It is my hope that the committee's takeaway will be how these actions could have similar effects upon their communities if Federal actions were replicated across the country.    I look forward to the witnesses and look forward to their testimony. Thank you, Chairman.</t>
   </si>
   <si>
@@ -94,45 +85,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cline. Chairman and committee members, thank you for the invitation to come here today and testify about H.R. 3881. My name is Mark Cline, and I am the President of the Pennsylvania Independent Petroleum Producers, and a member of the Pennsylvania Conventional Oil and Gas Advisory Committee.    As you are all aware, the National Forest System was designed to manage the natural resources, recreation, grazing, wildlife, fish, and more. The Allegheny National Forest is unique with its vast oil and gas minerals lying beneath it and 93 percent of those rights belonging to private citizens. There were wells already drilled on the property before the Forest Service took over.    At the present time, there are approximately 12,000 oil and gas wells in the Allegheny National Forest. The industry figures around half of those 12,000 wells were hydraulically fracked. A recent study concluded that, despite the long history of conventional well development in the region, the ANF's streams, trees, and other natural resources have prospered. The study states, ``Despite the tens of thousands of conventional oil and gas wells in operation in the region, a full 72 percent of the 2,126 miles of mapped streams in the ANF are rated as high value or exceptional value for water quality.''    The first Chief of the Forest Service, Gifford Pinchot, said, and I quote, ``National Forest land is managed to provide the greatest amount of good for the greatest amount of people in the long run.''    Now, you are probably thinking that only oil and gas operators are the ones benefiting from the use of the minerals under the forest. That thought is completely wrong. The story from Northwestern Pennsylvania is our Penn Grade Crude Oil, which, by the way, is the best lubricating oil in the world, played a huge part in both World Wars.    It was used exclusively in the engines that ran the trucks and equipment in the first war. The second war, it played a much bigger part as airplanes became so important. They say if you would ask an Army/Air Force mechanic from World War II, he would tell you they only used oil from Pennsylvania. It helped the planes fly more missions without having engine problems. It was used by the Army in their trucks and tanks which supported the soldiers. The same can be said about the Korea and Vietnam Wars. Fifteen to twenty percent of that oil came directly from the Allegheny National Forest. I think Gifford Pinchot would say that the oil was used for the greatest amount of good for the greatest amount of people.    People still benefit every day from the oil and gas. Natural gas is used for heating homes, buildings, hospitals, and schools. It is used to generate electricity. It fuels vehicles, heats water, bakes food, powers industrial furnaces, and even powers air conditioners. Our paraffin-based crude oil is turned into over 6,000 different products. Without crude oil, this country would come to a complete standstill. From the time you wake up in the morning from the sound of your alarm clock, take a shower, eat breakfast, and get into your car, you have already used over 40 products made from crude oil. So don't you ever think or let someone tell you that we are the only ones benefiting from the minerals under the ANF.    The industry has spent vast amounts of money defending our rights to produce in the ANF. These rights were given to us years ago and have been upheld by the courts. This bill would protect those rights. Please vote to approve this bill.    Thank you for your time and the opportunity to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Shuffstall to testify.</t>
   </si>
   <si>
-    <t>Shuffstall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuffstall. Chairman Lamborn, Ranking Member Lowenthal, members of the committee, it is an honor to speak with you today regarding this important issue. Thank you for the invitation. I am Bud Shuffstall. I am from Meadville, Pennsylvania. I work for Northwest Bank, which is headquartered in Warren, Pennsylvania, which also happens to be the headquarters of the Allegheny National Forest.    Like many of our customers and bank staff, personally I am a regular visitor to the ANF, and we value and appreciate it deeply. But I am here today as a member of NARO, the National Association of Royalty Owners.    NARO has members in all 50 states and educates and advocates for the rights of an estimated 8.5 to 12 million citizens who receive royalty income from the production of their private property, specifically from production of their oil, natural gas, and minerals. The average NARO member is 60 years old, a widow, and makes less than $500 per month in royalty income.    We are very pleased to address the committee on the issue of development of private or severed oil, gas, and mineral interests underlying the national forests, as the protection of these private property rights in all 50 states is paramount to millions of private mineral owners.    Of all the wells ever drilled in the world, the vast majority have been drilled in the United States. Why? Because we are a Nation that values the private ownership of oil, gas, and minerals. We value and encourage risk in the pursuit of profit. The United States is the only former British colony that, upon achieving independence, awarded the ownership of the minerals to private citizens instead of to the state. This uniquely American model was actually suggested by Thomas Jefferson. His concept has helped make us a strong Nation and today is enabling America's rise to become the world's dominant energy producer.    As noted previously, the ANF does lie in the heart of Pennsylvania's oil and gas region. Its headquarters is roughly 40 miles from the site of Drake's well in Titusville, Pennsylvania. Some of the earliest severances of these property rights, the oil and gas interests underlying the earth, occurred under land that was to become the Allegheny National Forest, or very near to it.    As previously noted, the ANF was created pursuant to the Weeks Act of 1911. In 1923, the Federal Government purchased only the surface estate, even though the Weeks Act authorized the acquisition of subsurface rights, including mineral rights. The Federal Government chose not to acquire those rights, as they were at the time too valuable and presumably cost-prohibitive to acquire. In doing so, the Federal Government took title to the surface only, and subject to the rights of all prior exceptions and reservations of subsurface oil and gas rights.    In many cases, those oil and gas rights underlying the ANF had long been severed before the creation of the ANF. It is a well established point of law in all jurisdictions of the United States, including Pennsylvania, that the private property rights of the subsurface estate are dominant over the rights of the surface estate. The law's recognition of the subsurface interest as dominant has been found to be essential, lest it be subrogated to any other property rights, thereby risking its devaluation.    Absent a taking by the government of those subsurface property rights, this legal principle precludes the Federal Government, as surface estate owner of the ANF, from interfering with the development of private subsurface rights.    Subject to state and Federal law, of course, the subsurface rights owners have the legal authority, therefore, to develop their private oil and gas reserves. It is this group that NARO represents. NARO members have a dominant legal authority to access and develop their private subsurface interests. The Forest Service may not unreasonably restrict access to that estate in a way that makes the development thereof uneconomic or unprofitable.    The government must be held to a reasonable set of regulatory management controls that does not unduly burden those private oil, gas, or mineral owners. For example, an excessive fee structure for access onto, or across, Federal lands will negatively affect the value of the subsurface estate and the economic viability of that estate.    Finally, the third tenet that should be addressed here is that the government may not unreasonably restrict oil and gas development to the point of requiring a ``no net impact'' from an environmental standpoint as it seeks to mitigate surface impacts. The government may not improperly elevate environmental concerns over other appropriate considerations, or seek to create a set of regulations that restricts or eliminates all environmental impacts on the subject lands.    Any environmental analysis must also include the economic impacts to the orderly development of oil and gas within the forest. This includes a socioeconomic analysis that details the negative impacts any restrictions will have on state and private subsurface development and the impacts to local and state economies and taxes.    In conclusion, we wish to emphasize that the government must recognize the rights of the subsurface interests and their dominance of those rights over the surface interests.    Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Casamassa to testify.</t>
   </si>
   <si>
-    <t>Casamassa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Casamassa. Mr. Chairman, Ranking Member Lowenthal, and members of the subcommittee, thank you for the opportunity to present the views of the U.S. Department of Agriculture regarding H.R. 3881, the Cooperative Management of Mineral Rights Act of 2015.    H.R. 3881 would repeal subsection (o) of section 17 of the Mineral Leasing Act, and Section 2508 of the Energy Policy Act of 1992. These provisions apply only to Federal lands within the Allegheny National Forest, for which the United States does not own the subsurface rights to oil and gas. These provisions provide general terms and conditions that must be followed before commencing surface-disturbing activities to develop oil and gas deposits.    The USDA believes the terms and conditions of the Mineral Leasing Act and the Energy Policy Act allow national forests to prudently manage surface resources, while ensuring the subsurface owners do not have unreasonable requirements to access their privately held mineral rights. We would like to continue to work with the sponsor to address issues of concern. However, we cannot support H.R. 3881.    This concludes my remarks. I would be happy to answer any questions. Thank you for the opportunity to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Furnish to testify.</t>
   </si>
   <si>
-    <t>Furnish</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Furnish. Good afternoon. I would like to just summarize where I am coming from on this. My view on this bill is that, although it is well intentioned, I view it as a misapplied fix.    I would note that the spark that ignited much of what is in contention here today was in 2007 during the George W. Bush administration lapsed over into the Obama administration, and was ultimately settled by the courts, which is their job.    To me, there is irony in the title of this bill, ``Cooperative Management of Mineral Rights,'' when ``cooperate'' is defined as to work or act together, which is precisely what the energy industry and the Forest Service have been doing for decades. The past cooperation, which was a result of both litigation and enacted statute, provides 60 days notice to the land holder by the proponent in exercising their private mineral rights. And this process has served the public interest well by both allowing industry access to their private estate energy resources laying beneath public lands, while providing the Forest Service a brief but reasonable amount of time to discharge its stewardship responsibilities on behalf of the public.    You, no doubt, are aware that I firmly believe the 60-day notice requirement should remain in place. I am well aware that a few years ago the Forest Service did place a ban--excuse me, a hold, not a ban, it was a hold on processing drilling proposals in the belief, based on their legal counsel, that NEPA necessitated review and analysis. This went through the courts and the courts found otherwise. The Forest Service has been behaving in compliance with that outcome since.    I would also like to note that it is necessary to work through occasional obstacles where important values and interests are at stake on both sides. I think the emergence of the fracking industry--and it was noted that about half the wells on the Allegheny have been subjected to fracking, much was unknown during the early part of the 21st century, much more is known now.    But in light of the questions surrounding this technology, the vast amounts of fluids used in drilling, as well as discharge from drilling, the important considerations of world-renowned black cherry resource, road access, water quality, recreation pursuits, all these things, there was a balancing of interest that the Forest Service was seeking to provide in the belief that they needed to approve of these, that this was ``a Federal action.'' The courts found that this was not a Federal action, it was a private action. So the Forest Service has waived the imposition of NEPA.    Now they are actively cooperating within the 60 days to provide notices to proceed. Industry is, likewise, exercising their right to drill in a cooperative relationship with the landowner. I think this comes down to this question that I pose to you legislators: If drilling activities like cutting trees, disposing of well affluents, and building access roads and drill pads were occurring on private lands with no notice to the owners, do you think these private citizens might be upset? Might they come to you for help?    In your role as an elected official, would you demand that industry had no responsibility to provide notice, no responsibility to minimize drilling consequences, and no responsibility to address landowner concerns as to disposing of affluents, trees, road locations, drill pads, sites, all these kinds of things?    Public land, though managed by the Forest Service, is really no different, because it belongs to private citizens, including you, who have every reason to demand that the Forest Service do its very best to care for this land as a public trust. You now have in place a law that fosters effective cooperation so that industry and private citizens alike get a fair shake.    For the life of me, I cannot understand why you wish to rescind that law and short-change the interests of your citizen constituents. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. All right.    The Chair now recognizes Mr. Mayer to testify.</t>
   </si>
   <si>
-    <t>Mayer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mayer. Thank you very much, Chairman Lamborn, Representative Thompson, and members of the committee. Thank you for inviting me to testify today. My testimony is being presented on behalf of the Pennsylvania Independent Oil and Gas Association of Pennsylvania.    Under the Weeks Act of 1911, sovereign states had first to consent to, by way of statutes, the acquisition of any lands whatsoever before any lands could be acquired for the purposes of national forest growing. Under Section 9 of the Weeks Act, before the United States could even purchase any surface lands that had been severed from oil and gas estates before the time the United States purchased itself, these are known as outstanding estates, it had to be found or certified that such estates, from their very nature, would in no manner interfere with the use of the land for the purposes of the Act. For reserved estates, those reserved at the time of the purchase from the seller himself or herself, the rules that were incorporated had to be expressed in and made a part of the deeds in order to be applied or effective.    Before proceeding further with my testimony, I did want to point out one point, which I think is important and helpful for the committee to know. One of the final acts in the events that would unfold in the 8 years of litigation and conflict between Northwest Pennsylvania's oil and gas producers and the Forest Service--pointedly, it was the Department of Justice in April 2014 awarding the Pennsylvania Independent Oil and Gas Association a half-a-million dollars, $530,000 exactly, in its legal fees and expenses in the Central Minard Run case, pursuant to a claim filed by the Equal Access to Justice Act. The Act authorizes the recovery of legal fees for an aggrieved party when the government is unable to show that its position in the litigation was substantially justified.    Beginning in 2006, the Forest Service departed from its decades-long cooperative relationship with private mineral owners and set upon a course of action designed to effectively seize control of the 483,000 acres of private mineral estates underlying the ANF. They went from a posture of cooperation--I was there--to a posture of coercion.    Included in its efforts was a 2009 sweetheart settlement agreement with environmental activists that was set aside by the Federal courts, the establishment--and I am not making this up--of an oil and gas strike team by the regional forester, and various administrative actions and rulemakings crafted to essentially strangle oil and gas development activity on the private estates in the ANF. Most of these initiatives were ultimately abandoned or suspended, as a result of PIOGA engaging with the Forest Service on these matters, as well as other parties. And in due course, fortunately, the Federal courts intervened to prevent the Forest Service from realizing its aims.    Getting to the precise questions today, I think that it is very important to the law in question that the language in 30 U.S.C. 226(o) about not construing what is there having anything to do with an effect on state authority is important. The language defers to state authority and sovereignty, just as the language in Section 9 of the Weeks Act does, and just as a requirement in the Weeks Act itself, that the sovereign states must consent to any acquisitions before they could occur at all.    In this regard, in 2008, the Pennsylvania General Assembly unanimously adopted resolutions reconfirming that the acquisition of the ANF under the Weeks Act did not and does not confer power on the United States to manage or regulate mineral estates that were in existence but were never purchased or condemned by the United States at the time of the acquisition. And the General Assembly also resolved that the imposition of any rules that would purport to manage or regulate reserved or outstanding estates, unless expressed in the deeds, would exceed the consent of the Commonwealth.    This principle of not recognizing or consenting to Federal jurisdiction over property rights that the Federal Government never acquired when it purchased the ANF was carried forward by the PA legislature 4 years later when it passed Act 13 of 2013, which is a comprehensive overhaul of the oil and gas regulations that is now in effect that covers every aspect of oil and gas development on the ANF and elsewhere in Pennsylvania. That provision reaffirmed that it was Pennsylvania laws and statutes that would apply to the reserved and outstanding estates in the ANF, and only those statutes.    Also in the Minard Run four decisions--there were five decisions in the history of that name in cases--Judge McLaughlin dismissed on the merits the argument that the Forest Service possessed broad regulatory authority as a result of Pennsylvania's 1911 consent statute, which authorized the acquisition to begin with. In so doing, he noted that the Pennsylvania Act contains no language authorizing the Federal Government to pass regulatory laws concerning unacquired mineral estates.    In closing, the Federal court rulings in the Minard Run line of cases, as well as action by the Pennsylvania legislature, have really resulted in subsection (o) becoming moot and superfluous. There is some confusion here with respect to what is, in fact, in effect as the law. There is no question that notice is absolutely required, has been required, and is continually given by any oil and gas producer since the 1980 decision in what was called Minard Run I. The repeal of this statute would in no fashion diminish the requirement for notice.</t>
   </si>
   <si>
@@ -314,9 +290,6 @@
   </si>
   <si>
     <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman, and I appreciate each of you for joining us today.    Mr. Mayer and Mr. Cline, the Forest Service manual states that Secretary's rules and regulations do not apply to the administration of outstanding rights. So, with that being said, it appears to me, at least, that the Forest Service attempt to apply NEPA to private mineral rights in the Allegheny National Forest is not only a violation of state and Federal law, but even a violation of their own policy. Would you agree with that?</t>
@@ -781,11 +754,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -807,11 +778,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -833,11 +802,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -859,11 +826,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -883,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -911,11 +874,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -935,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -963,11 +922,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -987,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1015,11 +970,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1039,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1067,11 +1018,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1091,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1119,11 +1066,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1143,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1171,11 +1114,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1195,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1223,11 +1162,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1247,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1275,11 +1210,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1301,11 +1234,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1325,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1353,11 +1282,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1377,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1405,11 +1330,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1429,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1457,11 +1378,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1481,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1509,11 +1426,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1533,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1559,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1585,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1611,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1637,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1663,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1689,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1715,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1741,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1767,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1793,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1819,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1871,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1923,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1949,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1975,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2001,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2027,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2055,11 +1930,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2079,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2107,11 +1978,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2131,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2157,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2183,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2209,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2235,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2261,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2287,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2313,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2339,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2365,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2391,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2417,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2443,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2469,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2495,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2521,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2547,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2573,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2599,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2625,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2651,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2677,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2703,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2731,11 +2554,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2755,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2781,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2807,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2833,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2859,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2885,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2911,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2937,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>99</v>
-      </c>
-      <c r="G85" t="s">
-        <v>100</v>
-      </c>
-      <c r="H85" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2963,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2989,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3015,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3041,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3067,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3093,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3119,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3145,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3171,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3197,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3223,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3249,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3275,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3303,11 +3082,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. The Subcommittee on Energy and Mineral Resources will come to order. We are here today to hear H.R. 3881, introduced by Representative Glenn Thompson of Pennsylvania, to amend the Mineral Leasing Act to repeal provisions relating only to the Allegheny National Forest, the ``Cooperative Management of Mineral Rights Act of 2015.''    Under Committee Rule 4(f), any oral opening statements at hearings are limited to the Chairman and Ranking Minority Member, and the Vice Chair and a designee of the Ranking Member. This will allow us to hear from our witnesses sooner and help Members keep to their schedules.    Therefore, I ask unanimous consent that all other Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    [No response.]</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lowenthal. Thank you very much, Mr. Chairman. I have some very significant concerns about the legislation before us today. I understand the sponsor's interest in trying to protect private oil and gas rights, and I certainly respect those rights. But I also respect the rights of surface landowners, who in this case are the American people. And we certainly should not be stripping away those rights just to make it a little easier for oil and gas companies.    Unfortunately, that appears to be all that this bill is about. This issue started back in 1979, when the forest rangers at the Allegheny National Forest discovered that an oil company was building roads and drilling in the Allegheny without having provided any notice whatsoever. Worse, they were drilling on land that was being managed for hunting, fishing, and wildlife habitat. The Forest Service had no opportunity to make sure that the forest resources were not damaged unnecessarily in the process of drilling.    The Forest Service also was unable to properly market the timber that the oil company cut down to build the roads and the well pad. So, the Forest Service sued the company and won. The ruling required the oil company to provide information to the Forest Service at least 60 days before doing any additional drilling.    Those requirements became standard operating procedure for the Forest Service in the 1980s, and were put into law by the Energy Policy Act of 1992. It is that language that this bill would eliminate.    This bill is unnecessary, since the courts have been very clear that the Forest Service deserves this advance notice. And I am concerned that future courts could interpret this legislation to indicate that it is the intent of Congress that companies do not have to provide any advance notice. Then those companies would be allowed to build roads and drill wells without telling anyone in charge of protecting the forest.    This could go far beyond the Allegheny, too, since it could set a precedent that would apply to all private minerals underneath national forests, nationwide. I do not see why it is necessary to take that kind of risk, particularly when recent court cases have severely limited the authority of the Forest Service in these situations.    According to the courts, the Forest Service cannot say no to companies wanting to drill on their private mineral rights. I disagree, but that is not the point we are discussing here today. The point is, the oil companies won, so there is no need for legislation that supposedly protects their interests. The courts have done it for them, and there is no indication that the 60-day notice has hindered companies very much, if at all.    But the courts have also been very clear that the Forest Service deserves this advance notice and it deserves the right to make sure that our national forests are not being unduly harmed by private companies seeking to drill for oil and gas. The Forest Service is managing this land on behalf of the American people, and the American people have the right to use this land for recreation, hunting, fishing, bird watching, and more, and have the right to expect they will be able to continue to do so with their children and their grandchildren.    This bill appears to simply blindfold the Forest Service to what is happening on their lands, and I think that is the wrong direction to go.    Thank you, Mr. Chair, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,6 +91,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thank you to the Ranking Member and my colleagues. Thank you for your attendance this afternoon.    The underlying issue that this Cooperative Management of Mineral Rights Act aims to address is central to the management of the Allegheny National Forest and the economy of the region. But also, this legislation has a profound implication to how we manage issues of access, nationally.    At its fundamental core, this legislation is about private property rights, not about oil--private property rights and fair access. As we discuss this legislation and the events leading up to it, it is critical to keep the history of the region in context.    Since coming to Congress in 2009, I have had the distinct privilege to represent both the Allegheny National Forest and Pennsylvania's oil region. Because of this area's remarkable history, the region was designated as a National Park Service Heritage Area, and is frequently referred to as--and I quote--``The Valley That Changed the World.''    In 1859, in Titusville, Pennsylvania, Col. Edwin Drake came to the area in search of petroleum, intending to corner the market for medicinal products. Drake discovered much more than a medicinal tonic. Over the following decades the oil industry developed, fueling manufacturing, exports, and generations of innovation.    Following the first American oil boom, in 1923 the Allegheny National Forest was established in four counties: Warren, Forest, Elk, and McKean. Because of the long history of oil and timbering within the region, the Federal Government chose to only purchase the surface rights within the Allegheny. This was done as an agreement between the landowners, the municipalities, and the Federal Government, my predecessors, to ensure industry could continue to produce privately sourced commodities, while the area could simultaneously function as a national forest.    And I have to say, if you have not been to the Allegheny National Forest, please come. You will see this works really well. There is not a problem, and what the Forest Service chose to do in cooperation with some environmental groups with a solution in search of a problem that the courts have deemed and reinforced as being inappropriate.    To this day, 93 percent of the mineral rights in the Allegheny are owned by the private sector. Unfortunately, the national forests are commonly mistaken for national parks. One might believe that the Forest Service would have this understanding, but I feel that we should be reminded of the mission presented by our first chief of the Forest Service, and former Pennsylvania Governor, Gifford Pinchot. The mission of the Forest Service is one of multiple uses and active management. This includes timbering, conservation, research, energy production, watershed management, and recreation.    In short, active management of these lands and responsible utilization of their resources is the core function of the Forest Service.    Since 1923, the Forest Service and local interests largely operated harmoniously in order to meet the various needs of the local communities and the economy, supplementing national demand for resources. However, the Forest Service attempted to fundamentally change this long-standing relationship as they settled out of court to apply the National Environmental Policy Act, or NEPA, to the oil and gas leasing process.    In January 2009, the Forest Service stopped issuing notices to proceed, effectively shutting down access to private property within the Allegheny. Subsequently, a Federal judge overturned the settlement, citing the Forest Service's lack of authority to further regulate privately held mineral rights within the Allegheny National Forest. With due respect to the Ranking Member, you cannot strip away something that the government never had.    Further, the courts found that the Federal Government is required to provide ``reasonable access'' to private property.    Mr. Chairman, the real-life consequences of the Forest Service's settlement produced a de facto moratorium on energy production in the Allegheny, affecting industry and the regional economy. Throughout this period, the Forest Service referred to an obscure provision contained in the Energy Policy Act of 1992, in order to justify the need for a new Federal regulatory process in the Allegheny National Forest.    For 16 years, the Forest Service did not promulgate a new rule, because they simply were not needed. Oil and gas extraction had been effectively regulated by the Commonwealth of Pennsylvania. In light of the court's decision, which again, ruled squarely in favor of the mineral rights owners, the private property owners, the existing 1992 statute remains on the book.    To address this matter, I have introduced H.R. 3881, the Cooperative Management of Mineral Rights Act. This legislation repeals the 1992 language which applies solely to the Allegheny National Forest. This would effectively codify the findings of the court, which remain consistent with more than 90 years of precedent. Property rights are, of course, among the founding principles of this great Nation. In fact, I think it is one of those that defines us as a Nation. And this is not a new concept. Case law shows us that access to private property cannot be unreasonably hindered, not even by the Federal Government.    Today the committee will hear from a panel of individuals who were party to the case in question. We will hear firsthand how the Forest Service's actions caused harm to my constituents; how it utilized, foolishly, probably more than $4 million that could have been used for healthy forest management, for multiple uses on the forest; and how it caused harm to the rural economy and communities of Northwestern Pennsylvania.    It is my hope that the committee's takeaway will be how these actions could have similar effects upon their communities if Federal actions were replicated across the country.    I look forward to the witnesses and look forward to their testimony. Thank you, Chairman.</t>
   </si>
   <si>
@@ -85,30 +106,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Cline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cline. Chairman and committee members, thank you for the invitation to come here today and testify about H.R. 3881. My name is Mark Cline, and I am the President of the Pennsylvania Independent Petroleum Producers, and a member of the Pennsylvania Conventional Oil and Gas Advisory Committee.    As you are all aware, the National Forest System was designed to manage the natural resources, recreation, grazing, wildlife, fish, and more. The Allegheny National Forest is unique with its vast oil and gas minerals lying beneath it and 93 percent of those rights belonging to private citizens. There were wells already drilled on the property before the Forest Service took over.    At the present time, there are approximately 12,000 oil and gas wells in the Allegheny National Forest. The industry figures around half of those 12,000 wells were hydraulically fracked. A recent study concluded that, despite the long history of conventional well development in the region, the ANF's streams, trees, and other natural resources have prospered. The study states, ``Despite the tens of thousands of conventional oil and gas wells in operation in the region, a full 72 percent of the 2,126 miles of mapped streams in the ANF are rated as high value or exceptional value for water quality.''    The first Chief of the Forest Service, Gifford Pinchot, said, and I quote, ``National Forest land is managed to provide the greatest amount of good for the greatest amount of people in the long run.''    Now, you are probably thinking that only oil and gas operators are the ones benefiting from the use of the minerals under the forest. That thought is completely wrong. The story from Northwestern Pennsylvania is our Penn Grade Crude Oil, which, by the way, is the best lubricating oil in the world, played a huge part in both World Wars.    It was used exclusively in the engines that ran the trucks and equipment in the first war. The second war, it played a much bigger part as airplanes became so important. They say if you would ask an Army/Air Force mechanic from World War II, he would tell you they only used oil from Pennsylvania. It helped the planes fly more missions without having engine problems. It was used by the Army in their trucks and tanks which supported the soldiers. The same can be said about the Korea and Vietnam Wars. Fifteen to twenty percent of that oil came directly from the Allegheny National Forest. I think Gifford Pinchot would say that the oil was used for the greatest amount of good for the greatest amount of people.    People still benefit every day from the oil and gas. Natural gas is used for heating homes, buildings, hospitals, and schools. It is used to generate electricity. It fuels vehicles, heats water, bakes food, powers industrial furnaces, and even powers air conditioners. Our paraffin-based crude oil is turned into over 6,000 different products. Without crude oil, this country would come to a complete standstill. From the time you wake up in the morning from the sound of your alarm clock, take a shower, eat breakfast, and get into your car, you have already used over 40 products made from crude oil. So don't you ever think or let someone tell you that we are the only ones benefiting from the minerals under the ANF.    The industry has spent vast amounts of money defending our rights to produce in the ANF. These rights were given to us years ago and have been upheld by the courts. This bill would protect those rights. Please vote to approve this bill.    Thank you for your time and the opportunity to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Shuffstall to testify.</t>
   </si>
   <si>
+    <t>Shuffstall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shuffstall. Chairman Lamborn, Ranking Member Lowenthal, members of the committee, it is an honor to speak with you today regarding this important issue. Thank you for the invitation. I am Bud Shuffstall. I am from Meadville, Pennsylvania. I work for Northwest Bank, which is headquartered in Warren, Pennsylvania, which also happens to be the headquarters of the Allegheny National Forest.    Like many of our customers and bank staff, personally I am a regular visitor to the ANF, and we value and appreciate it deeply. But I am here today as a member of NARO, the National Association of Royalty Owners.    NARO has members in all 50 states and educates and advocates for the rights of an estimated 8.5 to 12 million citizens who receive royalty income from the production of their private property, specifically from production of their oil, natural gas, and minerals. The average NARO member is 60 years old, a widow, and makes less than $500 per month in royalty income.    We are very pleased to address the committee on the issue of development of private or severed oil, gas, and mineral interests underlying the national forests, as the protection of these private property rights in all 50 states is paramount to millions of private mineral owners.    Of all the wells ever drilled in the world, the vast majority have been drilled in the United States. Why? Because we are a Nation that values the private ownership of oil, gas, and minerals. We value and encourage risk in the pursuit of profit. The United States is the only former British colony that, upon achieving independence, awarded the ownership of the minerals to private citizens instead of to the state. This uniquely American model was actually suggested by Thomas Jefferson. His concept has helped make us a strong Nation and today is enabling America's rise to become the world's dominant energy producer.    As noted previously, the ANF does lie in the heart of Pennsylvania's oil and gas region. Its headquarters is roughly 40 miles from the site of Drake's well in Titusville, Pennsylvania. Some of the earliest severances of these property rights, the oil and gas interests underlying the earth, occurred under land that was to become the Allegheny National Forest, or very near to it.    As previously noted, the ANF was created pursuant to the Weeks Act of 1911. In 1923, the Federal Government purchased only the surface estate, even though the Weeks Act authorized the acquisition of subsurface rights, including mineral rights. The Federal Government chose not to acquire those rights, as they were at the time too valuable and presumably cost-prohibitive to acquire. In doing so, the Federal Government took title to the surface only, and subject to the rights of all prior exceptions and reservations of subsurface oil and gas rights.    In many cases, those oil and gas rights underlying the ANF had long been severed before the creation of the ANF. It is a well established point of law in all jurisdictions of the United States, including Pennsylvania, that the private property rights of the subsurface estate are dominant over the rights of the surface estate. The law's recognition of the subsurface interest as dominant has been found to be essential, lest it be subrogated to any other property rights, thereby risking its devaluation.    Absent a taking by the government of those subsurface property rights, this legal principle precludes the Federal Government, as surface estate owner of the ANF, from interfering with the development of private subsurface rights.    Subject to state and Federal law, of course, the subsurface rights owners have the legal authority, therefore, to develop their private oil and gas reserves. It is this group that NARO represents. NARO members have a dominant legal authority to access and develop their private subsurface interests. The Forest Service may not unreasonably restrict access to that estate in a way that makes the development thereof uneconomic or unprofitable.    The government must be held to a reasonable set of regulatory management controls that does not unduly burden those private oil, gas, or mineral owners. For example, an excessive fee structure for access onto, or across, Federal lands will negatively affect the value of the subsurface estate and the economic viability of that estate.    Finally, the third tenet that should be addressed here is that the government may not unreasonably restrict oil and gas development to the point of requiring a ``no net impact'' from an environmental standpoint as it seeks to mitigate surface impacts. The government may not improperly elevate environmental concerns over other appropriate considerations, or seek to create a set of regulations that restricts or eliminates all environmental impacts on the subject lands.    Any environmental analysis must also include the economic impacts to the orderly development of oil and gas within the forest. This includes a socioeconomic analysis that details the negative impacts any restrictions will have on state and private subsurface development and the impacts to local and state economies and taxes.    In conclusion, we wish to emphasize that the government must recognize the rights of the subsurface interests and their dominance of those rights over the surface interests.    Thank you for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Casamassa to testify.</t>
   </si>
   <si>
+    <t>Casamassa</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Casamassa. Mr. Chairman, Ranking Member Lowenthal, and members of the subcommittee, thank you for the opportunity to present the views of the U.S. Department of Agriculture regarding H.R. 3881, the Cooperative Management of Mineral Rights Act of 2015.    H.R. 3881 would repeal subsection (o) of section 17 of the Mineral Leasing Act, and Section 2508 of the Energy Policy Act of 1992. These provisions apply only to Federal lands within the Allegheny National Forest, for which the United States does not own the subsurface rights to oil and gas. These provisions provide general terms and conditions that must be followed before commencing surface-disturbing activities to develop oil and gas deposits.    The USDA believes the terms and conditions of the Mineral Leasing Act and the Energy Policy Act allow national forests to prudently manage surface resources, while ensuring the subsurface owners do not have unreasonable requirements to access their privately held mineral rights. We would like to continue to work with the sponsor to address issues of concern. However, we cannot support H.R. 3881.    This concludes my remarks. I would be happy to answer any questions. Thank you for the opportunity to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you.    The Chair now recognizes Mr. Furnish to testify.</t>
   </si>
   <si>
+    <t>Furnish</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Furnish. Good afternoon. I would like to just summarize where I am coming from on this. My view on this bill is that, although it is well intentioned, I view it as a misapplied fix.    I would note that the spark that ignited much of what is in contention here today was in 2007 during the George W. Bush administration lapsed over into the Obama administration, and was ultimately settled by the courts, which is their job.    To me, there is irony in the title of this bill, ``Cooperative Management of Mineral Rights,'' when ``cooperate'' is defined as to work or act together, which is precisely what the energy industry and the Forest Service have been doing for decades. The past cooperation, which was a result of both litigation and enacted statute, provides 60 days notice to the land holder by the proponent in exercising their private mineral rights. And this process has served the public interest well by both allowing industry access to their private estate energy resources laying beneath public lands, while providing the Forest Service a brief but reasonable amount of time to discharge its stewardship responsibilities on behalf of the public.    You, no doubt, are aware that I firmly believe the 60-day notice requirement should remain in place. I am well aware that a few years ago the Forest Service did place a ban--excuse me, a hold, not a ban, it was a hold on processing drilling proposals in the belief, based on their legal counsel, that NEPA necessitated review and analysis. This went through the courts and the courts found otherwise. The Forest Service has been behaving in compliance with that outcome since.    I would also like to note that it is necessary to work through occasional obstacles where important values and interests are at stake on both sides. I think the emergence of the fracking industry--and it was noted that about half the wells on the Allegheny have been subjected to fracking, much was unknown during the early part of the 21st century, much more is known now.    But in light of the questions surrounding this technology, the vast amounts of fluids used in drilling, as well as discharge from drilling, the important considerations of world-renowned black cherry resource, road access, water quality, recreation pursuits, all these things, there was a balancing of interest that the Forest Service was seeking to provide in the belief that they needed to approve of these, that this was ``a Federal action.'' The courts found that this was not a Federal action, it was a private action. So the Forest Service has waived the imposition of NEPA.    Now they are actively cooperating within the 60 days to provide notices to proceed. Industry is, likewise, exercising their right to drill in a cooperative relationship with the landowner. I think this comes down to this question that I pose to you legislators: If drilling activities like cutting trees, disposing of well affluents, and building access roads and drill pads were occurring on private lands with no notice to the owners, do you think these private citizens might be upset? Might they come to you for help?    In your role as an elected official, would you demand that industry had no responsibility to provide notice, no responsibility to minimize drilling consequences, and no responsibility to address landowner concerns as to disposing of affluents, trees, road locations, drill pads, sites, all these kinds of things?    Public land, though managed by the Forest Service, is really no different, because it belongs to private citizens, including you, who have every reason to demand that the Forest Service do its very best to care for this land as a public trust. You now have in place a law that fosters effective cooperation so that industry and private citizens alike get a fair shake.    For the life of me, I cannot understand why you wish to rescind that law and short-change the interests of your citizen constituents. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. All right.    The Chair now recognizes Mr. Mayer to testify.</t>
   </si>
   <si>
+    <t>Mayer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mayer. Thank you very much, Chairman Lamborn, Representative Thompson, and members of the committee. Thank you for inviting me to testify today. My testimony is being presented on behalf of the Pennsylvania Independent Oil and Gas Association of Pennsylvania.    Under the Weeks Act of 1911, sovereign states had first to consent to, by way of statutes, the acquisition of any lands whatsoever before any lands could be acquired for the purposes of national forest growing. Under Section 9 of the Weeks Act, before the United States could even purchase any surface lands that had been severed from oil and gas estates before the time the United States purchased itself, these are known as outstanding estates, it had to be found or certified that such estates, from their very nature, would in no manner interfere with the use of the land for the purposes of the Act. For reserved estates, those reserved at the time of the purchase from the seller himself or herself, the rules that were incorporated had to be expressed in and made a part of the deeds in order to be applied or effective.    Before proceeding further with my testimony, I did want to point out one point, which I think is important and helpful for the committee to know. One of the final acts in the events that would unfold in the 8 years of litigation and conflict between Northwest Pennsylvania's oil and gas producers and the Forest Service--pointedly, it was the Department of Justice in April 2014 awarding the Pennsylvania Independent Oil and Gas Association a half-a-million dollars, $530,000 exactly, in its legal fees and expenses in the Central Minard Run case, pursuant to a claim filed by the Equal Access to Justice Act. The Act authorizes the recovery of legal fees for an aggrieved party when the government is unable to show that its position in the litigation was substantially justified.    Beginning in 2006, the Forest Service departed from its decades-long cooperative relationship with private mineral owners and set upon a course of action designed to effectively seize control of the 483,000 acres of private mineral estates underlying the ANF. They went from a posture of cooperation--I was there--to a posture of coercion.    Included in its efforts was a 2009 sweetheart settlement agreement with environmental activists that was set aside by the Federal courts, the establishment--and I am not making this up--of an oil and gas strike team by the regional forester, and various administrative actions and rulemakings crafted to essentially strangle oil and gas development activity on the private estates in the ANF. Most of these initiatives were ultimately abandoned or suspended, as a result of PIOGA engaging with the Forest Service on these matters, as well as other parties. And in due course, fortunately, the Federal courts intervened to prevent the Forest Service from realizing its aims.    Getting to the precise questions today, I think that it is very important to the law in question that the language in 30 U.S.C. 226(o) about not construing what is there having anything to do with an effect on state authority is important. The language defers to state authority and sovereignty, just as the language in Section 9 of the Weeks Act does, and just as a requirement in the Weeks Act itself, that the sovereign states must consent to any acquisitions before they could occur at all.    In this regard, in 2008, the Pennsylvania General Assembly unanimously adopted resolutions reconfirming that the acquisition of the ANF under the Weeks Act did not and does not confer power on the United States to manage or regulate mineral estates that were in existence but were never purchased or condemned by the United States at the time of the acquisition. And the General Assembly also resolved that the imposition of any rules that would purport to manage or regulate reserved or outstanding estates, unless expressed in the deeds, would exceed the consent of the Commonwealth.    This principle of not recognizing or consenting to Federal jurisdiction over property rights that the Federal Government never acquired when it purchased the ANF was carried forward by the PA legislature 4 years later when it passed Act 13 of 2013, which is a comprehensive overhaul of the oil and gas regulations that is now in effect that covers every aspect of oil and gas development on the ANF and elsewhere in Pennsylvania. That provision reaffirmed that it was Pennsylvania laws and statutes that would apply to the reserved and outstanding estates in the ANF, and only those statutes.    Also in the Minard Run four decisions--there were five decisions in the history of that name in cases--Judge McLaughlin dismissed on the merits the argument that the Forest Service possessed broad regulatory authority as a result of Pennsylvania's 1911 consent statute, which authorized the acquisition to begin with. In so doing, he noted that the Pennsylvania Act contains no language authorizing the Federal Government to pass regulatory laws concerning unacquired mineral estates.    In closing, the Federal court rulings in the Minard Run line of cases, as well as action by the Pennsylvania legislature, have really resulted in subsection (o) becoming moot and superfluous. There is some confusion here with respect to what is, in fact, in effect as the law. There is no question that notice is absolutely required, has been required, and is continually given by any oil and gas producer since the 1980 decision in what was called Minard Run I. The repeal of this statute would in no fashion diminish the requirement for notice.</t>
   </si>
   <si>
@@ -290,6 +326,12 @@
   </si>
   <si>
     <t>412623</t>
+  </si>
+  <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman, and I appreciate each of you for joining us today.    Mr. Mayer and Mr. Cline, the Forest Service manual states that Secretary's rules and regulations do not apply to the administration of outstanding rights. So, with that being said, it appears to me, at least, that the Forest Service attempt to apply NEPA to private mineral rights in the Allegheny National Forest is not only a violation of state and Federal law, but even a violation of their own policy. Would you agree with that?</t>
@@ -704,7 +746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +754,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2357 +776,2762 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
       <c r="H91" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G94" t="s">
+        <v>104</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G96" t="s">
+        <v>104</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G98" t="s">
+        <v>104</v>
+      </c>
       <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Lamborn</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lowenthal</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
   </si>
   <si>
     <t>412317</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Thompson</t>
@@ -746,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +766,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,2759 +791,2968 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" t="s">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G94" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H96" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
